--- a/IPL MS/Data Set/XML/PT_10.xlsx
+++ b/IPL MS/Data Set/XML/PT_10.xlsx
@@ -50,24 +50,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t xml:space="preserve"> pld</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> won</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tied</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pts</t>
-  </si>
-  <si>
     <t>Mumbai Indians</t>
   </si>
   <si>
@@ -90,6 +72,24 @@
   </si>
   <si>
     <t>Kings XI Punjab</t>
+  </si>
+  <si>
+    <t>Pld</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Tied</t>
+  </si>
+  <si>
+    <t>Net RR</t>
+  </si>
+  <si>
+    <t>Pts</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -431,27 +433,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -474,7 +476,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -497,7 +499,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -520,7 +522,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -543,7 +545,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -566,7 +568,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -589,7 +591,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -612,7 +614,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>14</v>
